--- a/data/financial_statements/socf/WFC.xlsx
+++ b/data/financial_statements/socf/WFC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2581 +590,2584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-10254000000</v>
+      </c>
+      <c r="C2">
         <v>3500000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2952000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3802000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6399000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5405000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6744000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4690000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3292000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3401000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-3536000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>505000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3089000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4812000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6338000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5967000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6154000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6086000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5309000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>5327000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>6241000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4600000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5894000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5725000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5304000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5654000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>5573000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5514000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5623000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5983000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5786000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5884000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5792000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5955000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5786000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>6075000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5713000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5683000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5608000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5220000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1690000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1772000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1791000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1800000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1917000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2023000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2150000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2082000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2279000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1990000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1868000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1633000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1840000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1651000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1449000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1371000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1387000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1404000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1431000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1612000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1316000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1241000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1237000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1372000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1365000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>938000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1295000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>892000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>838000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>831000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>727000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>582000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>630000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>732000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>571000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>785000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>865000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>809000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>834000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>-4717000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-5488000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-7082000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-2803000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-4849000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-3992000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-5997000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2950000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-710000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10742000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10782000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-5346000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-1361000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2322000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>641000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4372000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-1929000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-3183000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-842000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-2610000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2072000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3066000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1194000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-3272000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>622000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1404000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2417000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-1054000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-1405000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-128000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-1774000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>54000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-414000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1003000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>805000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3343000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-141000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-2949000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-702000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-3419000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4234000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-5882000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-12003000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-13456000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-11749000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-20422000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-23393000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-21631000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-8315000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-6030000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-6462000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-15216000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-16254000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-7222000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-4952000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-9361000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-12635000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-7826000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-8861000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-4083000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-20821000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-12193000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-26127000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-26148000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-18488000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-7509000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-7308000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-10857000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-16249000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-10679000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-7527000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-6827000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-9876000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-3432000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3778000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3415000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>623000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-13168000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>9045000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9172000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>11771000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>11696000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>107000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-3591000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>11122000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-4108000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10863000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16046000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>20413000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4962000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2327000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7808000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>6969000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10345000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>8338000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>5510000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>10861000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4933000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3570000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10374000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>14628000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>32535000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>14268000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4272000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>12234000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2454000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>20508000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>14015000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>5777000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1996000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>9567000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-1511000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>4190000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>4505000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>11209000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>14789000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>13135000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7">
         <v>-107000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>110000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>76000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-88000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>105000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>221000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-42000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-188000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>42000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>156000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>2468000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-1192000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3271000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1150000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4189000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-368000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-1204000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4916000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-161000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-3752000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>933000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1759000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8073000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-6579000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-541000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-1974000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>589000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-3236000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3756000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2451000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>3023000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-267000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-370000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-1713000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1896000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-1384000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>990000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-2530000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>6823000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-9628000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3832000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-1576000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7251000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>3557000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-2454000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-8085000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>2066000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-2662000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1536000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>3449000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-3862000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-7472000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>878000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1877000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2871000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6191000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-2604000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-2617000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2944000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-11198000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>12788000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-13450000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>4045000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>688000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-282000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1548000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>5982000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2523000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-3491000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-966000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-3813000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2917000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-3273000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-54000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>350000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-9027000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-1895000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-2846000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>3612000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-1328000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>3782000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-1012000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-3035000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-3135000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>4426000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-1806000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-3282000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2126000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6390000000</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>-5818000000</v>
+        <v>12016000000</v>
       </c>
       <c r="D10">
-        <v>-5690000000</v>
+        <v>7588000000</v>
       </c>
       <c r="E10">
-        <v>5124000000</v>
+        <v>199000000</v>
       </c>
       <c r="F10">
-        <v>8539000000</v>
+        <v>4817000000</v>
       </c>
       <c r="G10">
+        <v>-4810000000</v>
+      </c>
+      <c r="H10">
         <v>-8062000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-3470000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-22765000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-8576000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>16119000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>17273000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>12423000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-12975000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-669000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7951000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>15034000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>6658000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-849000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>15230000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>275000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>9532000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-4326000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>13138000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>4826000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-2397000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-7335000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5914000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-3897000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>18937000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-1651000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2515000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2865000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>15062000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-3239000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2841000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>14423000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>21103000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>12978000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>9137000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11">
         <v>-51000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-24000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-21000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-47000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-32000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-40000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-64000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-59000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>134000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>396000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
         <v>76000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-63000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>18000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-31000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-35000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-36000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-2000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-29000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-10000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-297000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-20000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>43000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-46000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-787000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-810000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-83000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-28904000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-3000000</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>-174000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-294000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>12218000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1541000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1584000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2342000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9353000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-13830000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3632000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9985000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7176000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>15675000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>911000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>9068000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-13498000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-18414000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3264000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-3287000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-5727000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>4566000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-12935000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1541000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>2292000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-12395000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>12549000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-2804000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>5026000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-30518000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-15319000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-22591000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>59070000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-33026000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3503000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-21614000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-14789000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-8878000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-31765000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-33372000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-4861000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-8186000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>4749000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>15379000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-5539000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-1678000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1776000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-10012000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-1333000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-2264000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8186000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>33016000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-10275000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3881000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-11573000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>6223000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4695000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-8285000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-199000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>4027000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-822000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-10668000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-231000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5538000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1849000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-35349000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-31988000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-13912000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>14919000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-5815000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-5821000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-17842000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-9947000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-20861000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-12776000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-6290000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-3304000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-6341000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-13791000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-4539000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-17677000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-143000000</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>462000000</v>
+        <v>-3536000000</v>
       </c>
       <c r="D15">
-        <v>-357000000</v>
+        <v>-32105000000</v>
       </c>
       <c r="E15">
-        <v>2797000000</v>
+        <v>-15881000000</v>
       </c>
       <c r="F15">
-        <v>-25000000</v>
+        <v>-31308000000</v>
       </c>
       <c r="G15">
+        <v>-11139000000</v>
+      </c>
+      <c r="H15">
         <v>15935000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>30691000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>19144000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>24487000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>63495000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-49703000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-7318000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-4876000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-3423000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>4693000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-13234000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3276000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2250000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>6417000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-4356000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>5362000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2158000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>8693000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-9144000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-4082000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-10169000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-5863000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-13761000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-15844000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-26406000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>70000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-15866000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-8093000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-13235000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-6003000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-12567000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-14557000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-5553000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-690000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>6545000000</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>8898000000</v>
+        <v>919000000</v>
       </c>
       <c r="D16">
-        <v>-17072000000</v>
+        <v>-4508000000</v>
       </c>
       <c r="E16">
-        <v>-31633000000</v>
+        <v>-22961000000</v>
       </c>
       <c r="F16">
-        <v>-20433000000</v>
+        <v>-31402000000</v>
       </c>
       <c r="G16">
+        <v>-7021000000</v>
+      </c>
+      <c r="H16">
         <v>15276000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15528000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>20512000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>42658000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>103687000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-44303000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-2526000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-7381000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-10698000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-9026000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-18245000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-220000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>550000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>10161000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-27936000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>6652000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10031000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-1899000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-32731000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-39684000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-19138000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-50366000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-34802000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-44307000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>14798000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-42924000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-33105000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-42530000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-34520000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-18225000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-50737000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-61779000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-14819000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-26157000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>25805000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>7674000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-780000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-9834000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-18566000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-20404000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-21645000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-186000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-21601000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-40046000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-10891000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-21291000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-3890000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>10041000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>6250000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5388000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3930000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1516000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-1273000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-6117000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-3379000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-13685000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-26000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-16603000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>14491000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>26977000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>29586000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>24765000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>9766000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1356000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>13820000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-1672000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>16306000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>17022000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2704000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1993000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>22988000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-4760000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>4193000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-5000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-4000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-6018000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-7012000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-5291000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1565000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-596000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-516000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>56000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>243000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-3198000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-7723000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-7334000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-4837000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-4639000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-7546000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-7280000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-2859000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-2647000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-2932000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-2418000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-2137000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-1603000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-2137000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-1610000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-1898000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-1550000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-2381000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-1695000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-1596000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-1978000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-2481000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-2166000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-2519000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-408000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-1089000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-1542000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-762000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>261000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-573000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-350000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>16000000</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>-502000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-1550000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-2150000000</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>677000000</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
         <v>1126000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>975000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>975000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1997000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>780000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1995000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>828000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1707000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>610000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-1355000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1284000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-1178000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1157000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1046000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-765000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-659000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-778000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-655000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-2397000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-2312000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-2466000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-2458000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-2374000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-2291000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-2373000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-2347000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-2309000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-2285000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-2278000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-2309000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-2255000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-2267000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-2256000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-2279000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-2259000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-2244000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-2234000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-2246000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-2220000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-2126000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-2081000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-2145000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-2020000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-1897000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-1748000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-1886000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-1746000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-1590000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>-67000000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>-20000000</v>
+        <v>-27065000000</v>
       </c>
       <c r="D21">
-        <v>-472000000</v>
+        <v>-56221000000</v>
       </c>
       <c r="E21">
-        <v>169000000</v>
+        <v>-1597000000</v>
       </c>
       <c r="F21">
-        <v>-123000000</v>
+        <v>12131000000</v>
       </c>
       <c r="G21">
+        <v>29821000000</v>
+      </c>
+      <c r="H21">
         <v>3310000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>32959000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>21559000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-27615000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>34088000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>53492000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>14102000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>19892000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>23996000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-22564000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>21506000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-2517000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-34995000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-32738000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>29724000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>828000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-19690000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>18947000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>30605000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>30359000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>3850000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>17658000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>20265000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>16278000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-10793000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>28918000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>38013000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>12090000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>24185000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>14797000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>37321000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>20398000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>10831000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>7903000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-2620000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-49835000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-9573000000</v>
       </c>
-      <c r="E22">
-        <v>-5948000000</v>
-      </c>
       <c r="F22">
-        <v>4408000000</v>
+        <v>-5872000000</v>
       </c>
       <c r="G22">
+        <v>4345000000</v>
+      </c>
+      <c r="H22">
         <v>-19774000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10063000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20095000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-49815000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-8112000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>36589000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-17378000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>4660000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>26826000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-23244000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>16975000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-10364000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-38647000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-38943000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>18397000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-7278000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-37090000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>15051000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>9609000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>40961000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>27796000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>44425000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>40415000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>23078000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-13253000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>40631000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>31779000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>24865000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>38663000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>15196000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>37305000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>41665000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3563000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>11377000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>10315000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-46755000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-32335000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-32457000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-7486000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-12560000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>22121000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>17842000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-15733000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>111694000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>9559000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-7481000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-15696000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>15459000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-24319000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>13764000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-3926000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-38946000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-13552000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-9264000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>8906000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-31385000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>26290000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-18296000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-1120000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1323000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-27000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1716000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-2292000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-106000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>222000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1539000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-2603000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>904000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-188000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>991000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>989000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1722000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-5643000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>234230000000</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3059,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>264612000000</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3071,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>141250000000</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3083,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>173287000000</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3095,34 +3212,34 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>215947000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>357000000</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>221043000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>220409000000</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>19111000000</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3131,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>19571000000</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3143,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>19919000000</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3155,1092 +3272,1101 @@
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>21860000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>10315000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-46755000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>201895000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-32457000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-7486000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-12560000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>286733000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>17842000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-15733000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>111694000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>150809000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-7481000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-15696000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>15459000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>148968000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>13764000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-3926000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-38946000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>202395000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-8907000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>8906000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-31385000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>247333000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>202113000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-1120000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1323000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>19084000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1716000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-2292000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-106000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>19793000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1539000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-2603000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>904000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>19731000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>991000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>989000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1722000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>16217000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26">
         <v>1858000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1475000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>929000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>429000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>384000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>371000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>582000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>389000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>497000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>486000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>902000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>396000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>573000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>494000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>792000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>451000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>409000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>446000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>740000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>471000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>298000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>460000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>716000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>433000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>347000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>470000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>708000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>387000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>381000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>452000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>692000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>385000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>396000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>514000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>625000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3040000000</v>
+      </c>
+      <c r="C27">
         <v>-1136000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-946000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-958000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-819000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-808000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-412000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-383000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-398000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-399000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-2023000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-2032000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-2080000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-2164000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-1957000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-1997000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-1962000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-2008000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-1855000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-1867000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-1875000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-1890000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-1856000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-1859000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-1863000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-1870000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-1881000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-1858000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-1871000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-1882000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-1885000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-1762000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-1774000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-1787000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-1802000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-1545000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-1544000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-1559000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-1566000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-1284000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-0.5454</v>
+      </c>
+      <c r="C28">
         <v>-0.6469</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.7111</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.853</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.9077</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-1.1773</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1.0177</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-1.1124</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.8139999999999999</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1.1767</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-1.0797</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.3063</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.4017</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-0.456</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-0.4939</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-0.3674</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-0.427</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-0.3475</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-0.3282</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-0.4325</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.4239</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.5167</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.4691</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-0.5463</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-0.3749</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-0.666</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-0.6342</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-0.6718</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-0.5534</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-0.611</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-0.526</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-0.7377</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-0.6002</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-0.6018</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-0.5891999999999999</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-0.5839</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-0.5979</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-0.5024999999999999</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-0.4642</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-0.493</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>11543000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8352000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1688000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-579000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-7283000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-12837000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-4313000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-25189000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-13546000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>6923000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4118000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>13047000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-18266000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-10980000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-106000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>3137000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1114000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-4379000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>9314000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-4968000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1544000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-14527000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>4982000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1422000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-10038000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-15250000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-3312000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-9358000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>13521000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-8140000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-2322000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-3563000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>8891000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-10760000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-4610000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>4582000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>14696000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>9510000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3785000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>4455000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>27597000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-7080000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-94000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4118000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-659000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-15163000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1368000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>18171000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>40192000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>5400000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4792000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-2505000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-7275000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-13719000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-5021000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-3486000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-1700000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3744000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-23603000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1310000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>7830000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-10546000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-22800000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-34792000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-8886000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-15599000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-21134000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-28412000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>41228000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-42973000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-17358000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-34390000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-21079000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-12182000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-38106000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-47163000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-9400000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-25863000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-219000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-338000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-220000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-338000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-238000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-353000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-276000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-380000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-256000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-374000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-280000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-386000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-294000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-417000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-294000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-411000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-339000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-454000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-418000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-403000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-419000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-399000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-408000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-393000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-409000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-378000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-386000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-363000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-364000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-335000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-364000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-307000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-358000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-218000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-352000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-204000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-327000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-180000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-306000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-5000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-4000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-6018000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-7012000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-5864000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-1915000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-592000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-500000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>56000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>243000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-3700000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-7723000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-8884000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-4837000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-4639000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-7546000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-9430000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-2859000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-2647000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-2932000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-2418000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-1460000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-1603000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-2137000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-1610000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-772000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-575000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-2381000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-720000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-1596000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>19000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-2481000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-1386000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-524000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-408000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-261000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>165000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-762000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>871000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-5000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-4000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-6018000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-7012000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-5864000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-1915000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-592000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-500000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>56000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>243000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-3700000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-7723000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-8884000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-4837000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-4639000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-7546000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-9430000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-2859000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-2647000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-2932000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-2418000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-1460000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-1603000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-2137000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-1610000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-772000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-575000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-2381000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-720000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-1596000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>19000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-2481000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-1386000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-524000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-408000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-261000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>165000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-762000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>871000000</v>
       </c>
     </row>
